--- a/RESULTS/SET 1 [0..5] Single/010.0%/BE.xlsx
+++ b/RESULTS/SET 1 [0..5] Single/010.0%/BE.xlsx
@@ -17,9 +17,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Feature index</t>
   </si>
@@ -89,67 +86,154 @@
     <t>Mallow Test</t>
   </si>
   <si>
-    <t>090055</t>
+    <t>011155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>060155</t>
+  </si>
+  <si>
+    <t>O-H</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>070155</t>
+  </si>
+  <si>
+    <t>007101</t>
+  </si>
+  <si>
+    <t>010055</t>
   </si>
   <si>
     <t>O-O</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>009100</t>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>080155</t>
+  </si>
+  <si>
+    <t>008101</t>
+  </si>
+  <si>
+    <t>090155</t>
+  </si>
+  <si>
+    <t>009101</t>
+  </si>
+  <si>
+    <t>100155</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>110155</t>
+  </si>
+  <si>
+    <t>011101</t>
+  </si>
+  <si>
+    <t>120155</t>
+  </si>
+  <si>
+    <t>012101</t>
+  </si>
+  <si>
+    <t>130155</t>
+  </si>
+  <si>
+    <t>013101</t>
   </si>
   <si>
     <t>140155</t>
   </si>
   <si>
-    <t>O-H</t>
-  </si>
-  <si>
     <t>014101</t>
   </si>
   <si>
-    <t>130155</t>
-  </si>
-  <si>
-    <t>013101</t>
-  </si>
-  <si>
-    <t>120155</t>
-  </si>
-  <si>
-    <t>012101</t>
-  </si>
-  <si>
-    <t>100155</t>
-  </si>
-  <si>
-    <t>010101</t>
-  </si>
-  <si>
-    <t>090155</t>
-  </si>
-  <si>
-    <t>009101</t>
-  </si>
-  <si>
-    <t>080155</t>
-  </si>
-  <si>
-    <t>008101</t>
-  </si>
-  <si>
-    <t>060155</t>
-  </si>
-  <si>
-    <t>006101</t>
-  </si>
-  <si>
-    <t>050155</t>
-  </si>
-  <si>
-    <t>005101</t>
+    <t>150155</t>
+  </si>
+  <si>
+    <t>015101</t>
+  </si>
+  <si>
+    <t>061155</t>
+  </si>
+  <si>
+    <t>006111</t>
+  </si>
+  <si>
+    <t>070055</t>
+  </si>
+  <si>
+    <t>007100</t>
+  </si>
+  <si>
+    <t>050055</t>
+  </si>
+  <si>
+    <t>005100</t>
+  </si>
+  <si>
+    <t>021155</t>
+  </si>
+  <si>
+    <t>002111</t>
+  </si>
+  <si>
+    <t>031155</t>
+  </si>
+  <si>
+    <t>003111</t>
+  </si>
+  <si>
+    <t>140055</t>
+  </si>
+  <si>
+    <t>014100</t>
+  </si>
+  <si>
+    <t>020055</t>
+  </si>
+  <si>
+    <t>002100</t>
+  </si>
+  <si>
+    <t>041155</t>
+  </si>
+  <si>
+    <t>004111</t>
+  </si>
+  <si>
+    <t>040155</t>
+  </si>
+  <si>
+    <t>004101</t>
+  </si>
+  <si>
+    <t>150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
+    <t>030055</t>
+  </si>
+  <si>
+    <t>003100</t>
   </si>
   <si>
     <t>010155</t>
@@ -158,145 +242,28 @@
     <t>001101</t>
   </si>
   <si>
-    <t>031155</t>
-  </si>
-  <si>
-    <t>H-H</t>
-  </si>
-  <si>
-    <t>003111</t>
-  </si>
-  <si>
-    <t>011155</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>021155</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>010055</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
-    <t>020055</t>
-  </si>
-  <si>
-    <t>002100</t>
-  </si>
-  <si>
-    <t>100055</t>
-  </si>
-  <si>
-    <t>010100</t>
-  </si>
-  <si>
-    <t>130055</t>
-  </si>
-  <si>
-    <t>013100</t>
-  </si>
-  <si>
-    <t>061155</t>
-  </si>
-  <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>110155</t>
-  </si>
-  <si>
-    <t>011101</t>
-  </si>
-  <si>
-    <t>070155</t>
-  </si>
-  <si>
-    <t>007101</t>
-  </si>
-  <si>
-    <t>150155</t>
-  </si>
-  <si>
-    <t>015101</t>
-  </si>
-  <si>
-    <t>140055</t>
-  </si>
-  <si>
-    <t>014100</t>
-  </si>
-  <si>
     <t>030155</t>
   </si>
   <si>
     <t>003101</t>
   </si>
   <si>
-    <t>150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
     <t>020155</t>
   </si>
   <si>
     <t>002101</t>
   </si>
   <si>
-    <t>040155</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>041155</t>
-  </si>
-  <si>
-    <t>004111</t>
+    <t>040055</t>
+  </si>
+  <si>
+    <t>004100</t>
   </si>
   <si>
     <t>151155</t>
   </si>
   <si>
     <t>015111</t>
-  </si>
-  <si>
-    <t>141155</t>
-  </si>
-  <si>
-    <t>014111</t>
-  </si>
-  <si>
-    <t>131155</t>
-  </si>
-  <si>
-    <t>013111</t>
-  </si>
-  <si>
-    <t>051155</t>
-  </si>
-  <si>
-    <t>005111</t>
-  </si>
-  <si>
-    <t>101155</t>
-  </si>
-  <si>
-    <t>010111</t>
-  </si>
-  <si>
-    <t>091155</t>
-  </si>
-  <si>
-    <t>009111</t>
   </si>
 </sst>
 </file>
@@ -720,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -729,7 +696,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -738,33 +705,33 @@
         <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>172.8864520337711</v>
+        <v>0.06465516792659076</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1.544530159795363e-07</v>
+        <v>2.627435516019647e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003930051093555099</v>
+        <v>0.0005125851652183905</v>
       </c>
       <c r="N2" t="n">
-        <v>0.970754929572071</v>
+        <v>0.9441785094724711</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9626312988976463</v>
+        <v>0.9286725398814908</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>32.01639188675108</v>
+        <v>140.5992424429144</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -773,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -782,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -797,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-935292.0682480122</v>
+        <v>-77591.16724295409</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -816,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -825,7 +792,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -840,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2198988.469720209</v>
+        <v>1653103.700518286</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -859,31 +826,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-1656177.635420523</v>
+        <v>0.3302841035919075</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -902,22 +869,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -926,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>686915.4903280324</v>
+        <v>-15747027.00246571</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -948,7 +915,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -960,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -969,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-401459.1875105794</v>
+        <v>87458128.75026917</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -988,22 +955,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -1012,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>87587.32766512239</v>
+        <v>-310915484.9809171</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -1031,22 +998,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -1055,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-3038.82592677255</v>
+        <v>732029722.8990645</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1074,22 +1041,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -1098,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>372.7469892335924</v>
+        <v>-1139936922.079285</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1117,22 +1084,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -1141,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.2014367240481079</v>
+        <v>1131326309.452895</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1160,16 +1127,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1184,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.336877579218708</v>
+        <v>-649090116.9685413</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1203,16 +1170,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1227,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.135940211781417</v>
+        <v>164019540.8208903</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1246,16 +1213,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1270,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.2861327710561454</v>
+        <v>-0.2089899182319641</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1289,16 +1256,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1313,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2982261130819097</v>
+        <v>49.7934741973877</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1332,16 +1299,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1356,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1711307352525182</v>
+        <v>-8.46426260471344</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1456,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-2</v>
@@ -1471,7 +1438,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1480,27 +1447,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1260524332657732</v>
+        <v>-0.1551066766581863</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.744308943496947e-07</v>
+        <v>5.004244479571434e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006119075864456125</v>
+        <v>0.0007074068475475364</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9291029844499762</v>
+        <v>0.8936817348663155</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9223508877309263</v>
+        <v>0.8835561858059646</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>145.1533206466884</v>
+        <v>342.2576685756818</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1509,31 +1476,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.235496420780466</v>
+        <v>0.07114747800427162</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1552,22 +1519,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -1576,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4157965400126102</v>
+        <v>0.3652388072220532</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1595,22 +1562,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1619,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4442329326872954</v>
+        <v>1.383421812086552</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1638,22 +1605,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1662,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.5371882054667597</v>
+        <v>-0.4981593039483131</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1681,22 +1648,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1705,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.947985444221146</v>
+        <v>1.906926172703659</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1805,13 +1772,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-2</v>
@@ -1820,7 +1787,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1829,27 +1796,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07947527213894057</v>
+        <v>-0.1191645026837852</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.247971374623912e-07</v>
+        <v>8.273116706986283e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006517646334854257</v>
+        <v>0.0009095667488967636</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9195663346300973</v>
+        <v>0.8242325251841792</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9132824545230737</v>
+        <v>0.8105006912141932</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>174.0815661278174</v>
+        <v>612.0532352685703</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1858,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-2</v>
@@ -1873,7 +1840,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1882,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1472826053267541</v>
+        <v>0.185232958572088</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1901,22 +1868,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1925,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>29604.49606735168</v>
+        <v>1.790354397587496</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1944,31 +1911,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2921902164865928</v>
+        <v>-0.502447482414375</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1987,22 +1954,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -2011,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.02691886749075512</v>
+        <v>0.4979905726238112</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2024,666 +1991,6 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.1605860495601555</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>5.189688268162321e-07</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0007203949103208823</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.9017352960452955</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8956882373403906</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>228.3738370298214</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.07244267139672569</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3448698296601028</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>27216.8829061284</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.04755629502840501</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.172358945135451e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001473892446936157</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5886723872478796</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5699756775773287</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>1169.896310208493</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.02379622325892513</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.08375728795519044</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.01550681341473793</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.341240853780025e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001530111386069663</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5566952628065672</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5434622855769125</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>1283.669030714575</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.003125059500537325</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2774,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -2786,7 +2093,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -2795,27 +2102,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.219684662382363</v>
+        <v>0.2197128520354024</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1.5493563791857e-07</v>
+        <v>2.780678011744935e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003936186452882663</v>
+        <v>0.0005273213452672796</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9706635470082047</v>
+        <v>0.9409227779915694</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9631960862466568</v>
+        <v>0.9258849396621507</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>31.55490313184439</v>
+        <v>152.6076455219482</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -2824,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -2833,7 +2140,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -2842,13 +2149,13 @@
         <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>383.417895770468</v>
+        <v>0.1953014241060077</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2867,22 +2174,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2891,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1790958914453118</v>
+        <v>-42669.78643335435</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2910,22 +2217,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -2934,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-920370.3278603358</v>
+        <v>-0.2232271148207827</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2953,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -2962,7 +2269,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -2977,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2159456.181270672</v>
+        <v>910334.881500267</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2996,22 +2303,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3020,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-1622277.174137196</v>
+        <v>-8685921.74968164</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3039,22 +2346,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -3063,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>668024.9439715414</v>
+        <v>48290290.49986493</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3082,22 +2389,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3106,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-388399.882167163</v>
+        <v>-171678837.1420531</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3125,22 +2432,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3149,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>84165.37401327341</v>
+        <v>403782419.8511499</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3168,22 +2475,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3192,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-2858.596681475407</v>
+        <v>-627450824.781895</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3211,31 +2518,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>344.6857310192427</v>
+        <v>5794.769807703793</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3254,22 +2561,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -3278,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1284744959557429</v>
+        <v>620767657.5200745</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3297,16 +2604,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -3321,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3227688954211771</v>
+        <v>-354717265.7834902</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3340,22 +2647,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -3364,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.2679519276425708</v>
+        <v>89193493.53901315</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3467,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>-2</v>
@@ -3479,7 +2786,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -3488,27 +2795,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.420999624230075</v>
+        <v>0.3423849827101475</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1.661289908595382e-07</v>
+        <v>3.045853582004299e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0004075892428162674</v>
+        <v>0.0005518925241389214</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9685441297018657</v>
+        <v>0.9352889592001611</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9612418740969416</v>
+        <v>0.9202667533001985</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>36.27726333781412</v>
+        <v>172.972676695891</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -3517,22 +2824,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -3541,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04765932674976604</v>
+        <v>0.4154740383303391</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3560,22 +2867,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -3584,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.07535353365259362</v>
+        <v>-0.5854965569243027</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3603,31 +2910,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4682.638156719388</v>
+        <v>-31.57544713479481</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3646,13 +2953,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>-6</v>
@@ -3661,7 +2968,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -3670,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2950468284577896</v>
+        <v>2903.907936843444</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3689,22 +2996,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3713,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-1286146.668332575</v>
+        <v>-269584.4472349905</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3732,22 +3039,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -3756,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>4017410.836478297</v>
+        <v>2190076.926933138</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3775,22 +3082,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3799,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-5298557.883937975</v>
+        <v>-8565272.14864824</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3818,22 +3125,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3842,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>3822779.516498936</v>
+        <v>19314006.89093634</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3861,22 +3168,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3885,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-1629080.015620258</v>
+        <v>-25674681.28829318</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3904,22 +3211,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -3928,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>410202.6082624149</v>
+        <v>18757682.0340897</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3947,22 +3254,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -3971,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-56565.2280843826</v>
+        <v>-5825067.273875959</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3990,31 +3297,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3298.085670275381</v>
+        <v>10683.1221565404</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4114,22 +3421,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -4138,27 +3445,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4358063781911913</v>
+        <v>0.8868438883563032</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1.701454858729555e-07</v>
+        <v>3.287767435424314e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000412486952366927</v>
+        <v>0.0005733905680619724</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9677836221857393</v>
+        <v>0.9301493499519689</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9610012268564213</v>
+        <v>0.9154439499418571</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>37.66054725673039</v>
+        <v>192.3143816896775</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4167,22 +3474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -4191,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.06288075612500203</v>
+        <v>0.3926243126025104</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4210,22 +3517,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -4234,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04882100084928548</v>
+        <v>-0.5427980717549086</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4253,22 +3560,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -4277,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-10440.43410253923</v>
+        <v>-5786.687917077647</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4296,22 +3603,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -4320,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>114312.3229763821</v>
+        <v>118065.1013713782</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4339,22 +3646,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4363,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-479547.4437616015</v>
+        <v>-8679502.677950924</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4382,22 +3689,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -4406,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>837232.8562931698</v>
+        <v>29095145.92032459</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4425,22 +3732,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -4449,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-2168657.433358004</v>
+        <v>-1063010.055525881</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4468,22 +3775,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4492,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2970989.690564705</v>
+        <v>-42076112.93367126</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4511,22 +3818,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4535,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-1297936.583621819</v>
+        <v>34266194.91723546</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4554,31 +3861,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>10934.55811576173</v>
+        <v>5438194.732454147</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4597,22 +3904,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4621,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2684267931617796</v>
+        <v>-17184814.08612636</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4721,51 +4028,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08596148445738731</v>
+        <v>0.8773534472750785</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.098585988363348e-07</v>
+        <v>3.404454949482453e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0004581032621978748</v>
+        <v>0.0005834770731984637</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9602641006136892</v>
+        <v>0.9276702516369149</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9527279817645613</v>
+        <v>0.9139525407404676</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>56.96658228234943</v>
+        <v>203.0271941973349</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4774,22 +4081,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -4798,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0263968013913456</v>
+        <v>0.3935615408347671</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4817,31 +4124,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3685096424684653</v>
+        <v>-0.01059623497784029</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4860,31 +4167,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4611.644724230646</v>
+        <v>-0.5464463264202625</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4903,23 +4210,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
@@ -4927,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-9359.600684146752</v>
+        <v>-70689.3470306922</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4946,22 +4253,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4970,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>87947.77742917165</v>
+        <v>851584.6654383024</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4989,22 +4296,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5013,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-268804.9801978789</v>
+        <v>-4304350.047510733</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5035,7 +4342,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -5047,7 +4354,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5056,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1873441.739441467</v>
+        <v>11641858.33960536</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5078,7 +4385,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -5090,7 +4397,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5099,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-4579245.298327246</v>
+        <v>-17729330.58906996</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5121,7 +4428,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -5133,7 +4440,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5142,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>4640008.078570157</v>
+        <v>14392980.36443616</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5164,7 +4471,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -5176,7 +4483,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -5185,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-1780485.391127909</v>
+        <v>-4861519.317104599</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5285,51 +4592,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08117039896289434</v>
+        <v>0.8464378933800498</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.643977203879474e-07</v>
+        <v>3.937655403634723e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005141961886167063</v>
+        <v>0.000627507402636393</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9499373326918145</v>
+        <v>0.9163420786259079</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9414521348429694</v>
+        <v>0.9021627699184347</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>84.48728710385883</v>
+        <v>245.2637464707221</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5338,22 +4645,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -5362,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.266549651842959</v>
+        <v>-2.818775897023817</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5381,31 +4688,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3512559253576211</v>
+        <v>0.3790063147434883</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5424,22 +4731,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -5448,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>11.3624371736111</v>
+        <v>-0.5238162123602237</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5467,22 +4774,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -5491,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-60129.18611682866</v>
+        <v>58460.88226323376</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5510,22 +4817,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -5534,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>385610.3572268452</v>
+        <v>-514698.5718731353</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5553,22 +4860,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5577,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-947456.1355533187</v>
+        <v>1855377.207435213</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5596,22 +4903,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5620,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1050151.784774993</v>
+        <v>-3400005.067553005</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5639,31 +4946,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>26594.75057278516</v>
+        <v>3152989.524016901</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5685,7 +4992,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -5697,7 +5004,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5706,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-441124.1283781165</v>
+        <v>-1179944.963114841</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5806,51 +5113,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.408949312395551</v>
+        <v>-0.4145305178333502</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.833910848126607e-07</v>
+        <v>4.089402526358357e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005323448927271311</v>
+        <v>0.0006394843646531443</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9463410139230203</v>
+        <v>0.9131181172681313</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9382921660114734</v>
+        <v>0.900085834858351</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>94.55083422095392</v>
+        <v>259.7531602195538</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5859,31 +5166,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.2288342821346036</v>
+        <v>0.72405156583032</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5902,22 +5209,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -5926,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1274788266164969</v>
+        <v>0.3159331784528698</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5945,13 +5252,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -5960,7 +5267,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -5969,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2106281149148334</v>
+        <v>-0.4186594594357827</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5988,22 +5295,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6012,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2238971518688921</v>
+        <v>646.5647898722302</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6031,31 +5338,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>13664.1662239348</v>
+        <v>-11738.26486613868</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6074,22 +5381,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6098,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-7537.177112319229</v>
+        <v>27778.29422379884</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6117,13 +5424,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
         <v>-14</v>
@@ -6132,7 +5439,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6141,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>7842.635987980847</v>
+        <v>-18628.37199810562</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6160,31 +5467,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-2015.714726241135</v>
+        <v>7805.565651610304</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6284,51 +5591,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4069105733701612</v>
+        <v>-0.4629388052029663</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.859495474842511e-07</v>
+        <v>4.321383760150438e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000534742505776613</v>
+        <v>0.0006573723267791578</v>
       </c>
       <c r="N2" t="n">
-        <v>0.94585657908992</v>
+        <v>0.9081895326593997</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9387558025771227</v>
+        <v>0.8961488156311243</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>96.29806155066819</v>
+        <v>280.8387358565455</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6337,31 +5644,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.2264763970711924</v>
+        <v>0.8139827669429769</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6380,22 +5687,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -6404,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1215693063599849</v>
+        <v>0.3501936393730156</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6423,22 +5730,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -6447,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.5954250970008981</v>
+        <v>-0.4710985563525419</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6466,22 +5773,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6490,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2015916627459023</v>
+        <v>1312.002969190926</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6509,31 +5816,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>14601.15891313986</v>
+        <v>-4512.399300326009</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6552,23 +5859,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
@@ -6576,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>701.5002116881129</v>
+        <v>13981.9003003151</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6595,22 +5902,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6619,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1136.116040344452</v>
+        <v>-12471.22941683945</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6719,13 +6026,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-2</v>
@@ -6734,36 +6041,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3904001167515243</v>
+        <v>-0.1552047369165321</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.964409537298991e-07</v>
+        <v>4.746751606668799e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005444639140750276</v>
+        <v>0.000688966734078562</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9438700726264746</v>
+        <v>0.8991523300067115</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9375328227617217</v>
+        <v>0.8877663027494047</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>102.3255580830024</v>
+        <v>317.730226555653</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6772,31 +6079,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.2195175051120666</v>
+        <v>0.06870605666343504</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6815,22 +6122,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -6839,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1253769419249404</v>
+        <v>0.3936014258320419</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6858,13 +6165,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -6876,13 +6183,13 @@
         <v>77</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2451496846295105</v>
+        <v>1.415013100698673</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6901,22 +6208,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6925,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.169980014519146</v>
+        <v>-0.5736091686143716</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6944,31 +6251,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>16546.39172290603</v>
+        <v>1.093821505142304</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6987,22 +6294,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -7011,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1836544292813008</v>
+        <v>37.32841232293622</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
